--- a/Backend/Excel/Total Assets.xlsx
+++ b/Backend/Excel/Total Assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C774A-3AFF-F349-8DAD-C0DEE2B9D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE54F091-5D91-3C4A-BD0F-3DCD9550C9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{13CE6B9A-CA64-644C-9549-EF6BC213F570}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Total Net Assets</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>totalNetAssets</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,10 +436,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
